--- a/RMD/input/international_news.xlsx
+++ b/RMD/input/international_news.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lidazhang/Downloads/DailyReport-master/RMD/input/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A597607-B6A8-C140-A073-223BDF27B024}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1 - test" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表 1 - test" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>Pub</t>
   </si>
@@ -40,31 +49,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -87,7 +84,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -138,37 +135,6 @@
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -229,51 +195,42 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -284,27 +241,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -506,7 +521,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -525,7 +540,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -555,7 +570,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -581,7 +596,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -607,7 +622,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -633,7 +648,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -659,7 +674,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -685,7 +700,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -711,7 +726,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -737,7 +752,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -763,7 +778,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -776,9 +791,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -795,7 +816,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -814,7 +835,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -840,7 +861,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -866,7 +887,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -892,7 +913,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -918,7 +939,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -944,7 +965,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -970,7 +991,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -996,7 +1017,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,7 +1043,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,7 +1069,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1061,9 +1082,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1077,7 +1104,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1096,7 +1123,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1126,7 +1153,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,7 +1179,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,7 +1205,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1204,7 +1231,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1230,7 +1257,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,7 +1283,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1282,7 +1309,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,7 +1335,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +1361,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1347,110 +1374,144 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="46" style="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="147.852" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="147.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.05" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="20.05" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="4">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.7" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
+    <row r="5" spans="1:3" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" ht="14.7" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+    <row r="6" spans="1:3" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" ht="14.7" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+    <row r="7" spans="1:3" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+    <row r="8" spans="1:3" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+    <row r="9" spans="1:3" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
     </row>
-    <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
+    <row r="10" spans="1:3" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
